--- a/biology/Médecine/1133_en_santé_et_médecine/1133_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1133_en_santé_et_médecine/1133_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1133_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1133_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1133 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1133_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1133_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Oylard, sire de Wimille en Flandre, fonde l'hôpital de Saint-Inglevert[1].
-Une maladrerie sans doute fondée par Guigues Ier, prieur de la Grande Chartreuse, est attestée au lieu-dit Intersaxe, « sur la rive gauche du Rhône, entre Le Balme de Pierre-Châtel et la ville d'Yenne », en Savoie[2].
-Un certain Giovanni di Bernardo Normanno fait construire à Tresinara, près de Gênes, en Ligurie, en même temps que l'église de San Giacomo Maggiore (it) (« Saint-Jacques-le-Majeur »), un hôpital placé sous l'invocation de saint Hilaire[3],[4].
-Année possible de la fondation de l'hospice des Coquins, faubourg Saint-Gilles, à Liège en Flandre[5].
-Avant 1133 : fondation d'une chapelle à laquelle sera sans doute attaché l'hôpital pour lépreux qui donnera son nom à l'actuelle aire suburbaine de « Spital (en) », circonscription incluse dans les villes de Bebington et  de Bromborough du district métropolitain de Wirral, au Nord-Est de l'Angleterre[6].
-1133-1134 : fondation à Newark, dans le Nottinghamshire en Angleterre, de St. Leonard's Hospital, consacré aux pauvres et aux malades, mais dont une charte mentionne aussi les lépreux[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Oylard, sire de Wimille en Flandre, fonde l'hôpital de Saint-Inglevert.
+Une maladrerie sans doute fondée par Guigues Ier, prieur de la Grande Chartreuse, est attestée au lieu-dit Intersaxe, « sur la rive gauche du Rhône, entre Le Balme de Pierre-Châtel et la ville d'Yenne », en Savoie.
+Un certain Giovanni di Bernardo Normanno fait construire à Tresinara, près de Gênes, en Ligurie, en même temps que l'église de San Giacomo Maggiore (it) (« Saint-Jacques-le-Majeur »), un hôpital placé sous l'invocation de saint Hilaire,.
+Année possible de la fondation de l'hospice des Coquins, faubourg Saint-Gilles, à Liège en Flandre.
+Avant 1133 : fondation d'une chapelle à laquelle sera sans doute attaché l'hôpital pour lépreux qui donnera son nom à l'actuelle aire suburbaine de « Spital (en) », circonscription incluse dans les villes de Bebington et  de Bromborough du district métropolitain de Wirral, au Nord-Est de l'Angleterre.
+1133-1134 : fondation à Newark, dans le Nottinghamshire en Angleterre, de St. Leonard's Hospital, consacré aux pauvres et aux malades, mais dont une charte mentionne aussi les lépreux.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1133_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1133_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1133 ou 1134 : Hildebert de Lavardin (né vers 1055), évêque du Mans, archevêque de Tours, versé dans l'art de guérir selon Dubreuil-Chambardel, ce que conteste Wickersheimer[8],[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1133 ou 1134 : Hildebert de Lavardin (né vers 1055), évêque du Mans, archevêque de Tours, versé dans l'art de guérir selon Dubreuil-Chambardel, ce que conteste Wickersheimer,.</t>
         </is>
       </c>
     </row>
